--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Davies.Fall.111119.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Davies.Fall.111119.xlsx_with_dialog_acts.xlsx
@@ -927,12 +927,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1345,12 +1345,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2181,12 +2181,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2371,12 +2371,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2827,12 +2827,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2979,12 +2979,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3443,12 +3443,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3481,12 +3481,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3785,12 +3785,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3823,12 +3823,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3975,12 +3975,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4169,12 +4169,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4245,12 +4245,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4321,12 +4321,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4397,12 +4397,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4591,12 +4591,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4629,12 +4629,12 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4667,12 +4667,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5427,12 +5427,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5541,12 +5541,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5925,12 +5925,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
